--- a/public/Format_User.xlsx
+++ b/public/Format_User.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/Format_User.xlsx
+++ b/public/Format_User.xlsx
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,12 +173,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -183,6 +188,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,7 +476,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,31 +484,31 @@
     <col min="1" max="4" width="25.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>12345678</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -507,7 +516,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -521,7 +530,7 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -538,6 +547,7 @@
     <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>